--- a/Lab 1 - Opracowanie danych pomiarowych/Fizyka1v2.xlsx
+++ b/Lab 1 - Opracowanie danych pomiarowych/Fizyka1v2.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yevvy\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabela2" sheetId="2" r:id="rId2"/>
     <sheet name="Arkusz1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -82,9 +77,6 @@
     <t>Niepewność typu B</t>
   </si>
   <si>
-    <t>u(l)=1mm</t>
-  </si>
-  <si>
     <t>g</t>
   </si>
   <si>
@@ -114,11 +106,14 @@
   <si>
     <t>Niepewność rozszerzona U(g)</t>
   </si>
+  <si>
+    <t>u(l)=3mm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000000000"/>
@@ -200,7 +195,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
@@ -248,26 +243,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -379,7 +354,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1CF9-4FF0-AC9C-5985C5766E19}"/>
             </c:ext>
@@ -393,11 +368,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1243601936"/>
-        <c:axId val="1243592368"/>
+        <c:axId val="81113472"/>
+        <c:axId val="81115392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1243601936"/>
+        <c:axId val="81113472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -454,12 +429,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1243592368"/>
+        <c:crossAx val="81115392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1243592368"/>
+        <c:axId val="81115392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -516,7 +491,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1243601936"/>
+        <c:crossAx val="81113472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1248,7 +1223,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1283,7 +1258,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1460,7 +1435,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1471,7 +1446,7 @@
   <dimension ref="A1:Y44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1510,7 +1485,7 @@
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -2126,7 +2101,7 @@
         <v>10</v>
       </c>
       <c r="B18">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -2796,8 +2771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2827,10 +2802,10 @@
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -3184,7 +3159,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -3590,8 +3565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BJ369"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3610,10 +3585,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -5096,7 +5071,7 @@
     </row>
     <row r="23" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2">
         <f>AVERAGE(B3:B22)</f>
@@ -5363,10 +5338,10 @@
     </row>
     <row r="27" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -5431,7 +5406,7 @@
     </row>
     <row r="28" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="7">
         <v>1.293144E-3</v>
@@ -5499,11 +5474,11 @@
     </row>
     <row r="29" spans="1:62" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" s="2">
         <f>POWER((POWER((( (4*PI()*PI()*$B$27)/($C$23*$C$23)) ),2)+POWER((((8*PI()*PI()*$B$23*$B$28)/($C$23*$C$23*$C$23))),2)),0.5)</f>
-        <v>3.0057065902681521E-2</v>
+        <v>7.8289773512159849E-2</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -5632,7 +5607,7 @@
     </row>
     <row r="31" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="2">
         <v>2</v>
@@ -5700,11 +5675,11 @@
     </row>
     <row r="32" spans="1:62" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" s="2">
         <f>B29*B31</f>
-        <v>6.0114131805363041E-2</v>
+        <v>0.1565795470243197</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
